--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_423__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_423__Reeval_Sobol_Modell_1.3.xlsx
@@ -6124,13 +6124,13 @@
                   <c:v>59.51433181762695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.11626434326172</c:v>
+                  <c:v>81.11625671386719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.05199432373047</c:v>
+                  <c:v>79.052001953125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.28466415405273</c:v>
+                  <c:v>47.28466033935547</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>66.88660430908203</c:v>
@@ -6154,7 +6154,7 @@
                   <c:v>63.07753372192383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91.18097686767578</c:v>
+                  <c:v>91.18099212646484</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>28.88183212280273</c:v>
@@ -6169,7 +6169,7 @@
                   <c:v>74.26863861083984</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55.20915222167969</c:v>
+                  <c:v>55.20915603637695</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>80.81835174560547</c:v>
@@ -6178,10 +6178,10 @@
                   <c:v>75.47610473632812</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47.10927200317383</c:v>
+                  <c:v>47.10928344726562</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.47589874267578</c:v>
+                  <c:v>26.47590255737305</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>60.4886474609375</c:v>
@@ -6193,13 +6193,13 @@
                   <c:v>77.78179931640625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.43868255615234</c:v>
+                  <c:v>58.43869400024414</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>75.98972320556641</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.82669830322266</c:v>
+                  <c:v>70.82671356201172</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>82.10617828369141</c:v>
@@ -6208,7 +6208,7 @@
                   <c:v>73.72035980224609</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.7899169921875</c:v>
+                  <c:v>70.78992462158203</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>87.49461364746094</c:v>
@@ -6220,7 +6220,7 @@
                   <c:v>88.34136199951172</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>82.88572692871094</c:v>
+                  <c:v>82.88571929931641</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>66.96717834472656</c:v>
@@ -6229,19 +6229,19 @@
                   <c:v>75.19115447998047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>79.04670715332031</c:v>
+                  <c:v>79.04671478271484</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>74.42407989501953</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32.68241500854492</c:v>
+                  <c:v>32.68241882324219</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74.08341217041016</c:v>
+                  <c:v>74.08339691162109</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84.84956359863281</c:v>
+                  <c:v>84.84955596923828</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>81.66585540771484</c:v>
@@ -6250,7 +6250,7 @@
                   <c:v>60.85227584838867</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>78.55555725097656</c:v>
+                  <c:v>78.55556488037109</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>85.36687469482422</c:v>
@@ -6262,10 +6262,10 @@
                   <c:v>46.44157791137695</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>79.51585388183594</c:v>
+                  <c:v>79.515869140625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.9096794128418</c:v>
+                  <c:v>25.90968322753906</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>68.89624786376953</c:v>
@@ -6274,13 +6274,13 @@
                   <c:v>102.7052459716797</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>83.46247863769531</c:v>
+                  <c:v>83.46247100830078</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>75.94395446777344</c:v>
+                  <c:v>75.94396209716797</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>81.48101806640625</c:v>
+                  <c:v>81.48103332519531</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>64.81447601318359</c:v>
@@ -6292,7 +6292,7 @@
                   <c:v>70.99996948242188</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>74.84160614013672</c:v>
+                  <c:v>74.84159851074219</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>49.60564804077148</c:v>
@@ -6313,10 +6313,10 @@
                   <c:v>43.09316253662109</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>78.80008697509766</c:v>
+                  <c:v>78.80007934570312</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>92.73045349121094</c:v>
+                  <c:v>92.73046112060547</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>85.35928344726562</c:v>
@@ -6325,34 +6325,34 @@
                   <c:v>71.97751617431641</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.23120880126953</c:v>
+                  <c:v>82.23121643066406</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>59.87263107299805</c:v>
+                  <c:v>59.87261962890625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>73.62900543212891</c:v>
+                  <c:v>73.62901306152344</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>28.31772041320801</c:v>
+                  <c:v>28.31772804260254</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>81.13905334472656</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>64.96006774902344</c:v>
+                  <c:v>64.96007537841797</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>89.75225830078125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>18.18995475769043</c:v>
+                  <c:v>18.18996238708496</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50.26949310302734</c:v>
+                  <c:v>50.26948928833008</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>45.06184768676758</c:v>
+                  <c:v>45.06184387207031</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>51.49042892456055</c:v>
@@ -6370,19 +6370,19 @@
                   <c:v>78.50191497802734</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>25.87770462036133</c:v>
+                  <c:v>25.8777027130127</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30.8681755065918</c:v>
+                  <c:v>30.86817932128906</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>96.1732177734375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>89.31686401367188</c:v>
+                  <c:v>89.31685638427734</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>91.84371185302734</c:v>
+                  <c:v>91.84372711181641</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>59.69386672973633</c:v>
@@ -6400,7 +6400,7 @@
                   <c:v>45.51476287841797</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>75.40899658203125</c:v>
+                  <c:v>75.40900421142578</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>80.01537322998047</c:v>
@@ -7183,7 +7183,7 @@
         <v>72.6374</v>
       </c>
       <c r="F4">
-        <v>81.11626434326172</v>
+        <v>81.11625671386719</v>
       </c>
       <c r="G4">
         <v>103</v>
@@ -7215,7 +7215,7 @@
         <v>88.4752</v>
       </c>
       <c r="F5">
-        <v>79.05199432373047</v>
+        <v>79.052001953125</v>
       </c>
       <c r="G5">
         <v>103</v>
@@ -7247,7 +7247,7 @@
         <v>48.7815</v>
       </c>
       <c r="F6">
-        <v>47.28466415405273</v>
+        <v>47.28466033935547</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>84.10420000000001</v>
       </c>
       <c r="F14">
-        <v>91.18097686767578</v>
+        <v>91.18099212646484</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>55.20915222167969</v>
+        <v>55.20915603637695</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>54.2093</v>
       </c>
       <c r="F22">
-        <v>47.10927200317383</v>
+        <v>47.10928344726562</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>26.47589874267578</v>
+        <v>26.47590255737305</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>63.4677</v>
       </c>
       <c r="F27">
-        <v>58.43868255615234</v>
+        <v>58.43869400024414</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>82.548</v>
       </c>
       <c r="F29">
-        <v>70.82669830322266</v>
+        <v>70.82671356201172</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>76.2226</v>
       </c>
       <c r="F32">
-        <v>70.7899169921875</v>
+        <v>70.78992462158203</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>73.6311</v>
       </c>
       <c r="F36">
-        <v>82.88572692871094</v>
+        <v>82.88571929931641</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>74.9051</v>
       </c>
       <c r="F39">
-        <v>79.04670715332031</v>
+        <v>79.04671478271484</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>32.68241500854492</v>
+        <v>32.68241882324219</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>76.90989999999999</v>
       </c>
       <c r="F42">
-        <v>74.08341217041016</v>
+        <v>74.08339691162109</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>84.84956359863281</v>
+        <v>84.84955596923828</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>72.2573</v>
       </c>
       <c r="F46">
-        <v>78.55555725097656</v>
+        <v>78.55556488037109</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>79.51585388183594</v>
+        <v>79.515869140625</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>23.918</v>
       </c>
       <c r="F51">
-        <v>25.9096794128418</v>
+        <v>25.90968322753906</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.5389</v>
       </c>
       <c r="F54">
-        <v>83.46247863769531</v>
+        <v>83.46247100830078</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>89.90649999999999</v>
       </c>
       <c r="F55">
-        <v>75.94395446777344</v>
+        <v>75.94396209716797</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>80.2208</v>
       </c>
       <c r="F56">
-        <v>81.48101806640625</v>
+        <v>81.48103332519531</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>76.94629999999999</v>
       </c>
       <c r="F60">
-        <v>74.84160614013672</v>
+        <v>74.84159851074219</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>80.6164</v>
       </c>
       <c r="F67">
-        <v>78.80008697509766</v>
+        <v>78.80007934570312</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>92.73045349121094</v>
+        <v>92.73046112060547</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>83.73390000000001</v>
       </c>
       <c r="F71">
-        <v>82.23120880126953</v>
+        <v>82.23121643066406</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>61.5791</v>
       </c>
       <c r="F72">
-        <v>59.87263107299805</v>
+        <v>59.87261962890625</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>81.6987</v>
       </c>
       <c r="F73">
-        <v>73.62900543212891</v>
+        <v>73.62901306152344</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>25.8506</v>
       </c>
       <c r="F74">
-        <v>28.31772041320801</v>
+        <v>28.31772804260254</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>71.3847</v>
       </c>
       <c r="F76">
-        <v>64.96006774902344</v>
+        <v>64.96007537841797</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>18.18995475769043</v>
+        <v>18.18996238708496</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>50.26949310302734</v>
+        <v>50.26948928833008</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.8515</v>
       </c>
       <c r="F80">
-        <v>45.06184768676758</v>
+        <v>45.06184387207031</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>25.87770462036133</v>
+        <v>25.8777027130127</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>30.8681755065918</v>
+        <v>30.86817932128906</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>90.2206</v>
       </c>
       <c r="F89">
-        <v>89.31686401367188</v>
+        <v>89.31685638427734</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>89.8989</v>
       </c>
       <c r="F90">
-        <v>91.84371185302734</v>
+        <v>91.84372711181641</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>75.40899658203125</v>
+        <v>75.40900421142578</v>
       </c>
     </row>
     <row r="97" spans="1:6">
